--- a/SQL/Données de base.xlsx
+++ b/SQL/Données de base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12144" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Formateur" sheetId="7" r:id="rId1"/>
@@ -2954,7 +2954,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F42"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4931,7 +4931,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F238"/>
     </sheetView>
   </sheetViews>
@@ -4968,12 +4968,12 @@
         <v>188</v>
       </c>
       <c r="E2">
-        <f>VLOOKUP(A2,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A2,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F2" t="str">
         <f>"insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('"&amp;D2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;E2&amp;"',md5('"&amp;D2&amp;"'),1);"</f>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19073367','DE MOURA','PAUL','4',md5('19073367'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19073367','DE MOURA','PAUL','2',md5('19073367'),1);</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4990,12 +4990,12 @@
         <v>191</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(A3,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A3,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F66" si="0">"insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('"&amp;D3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;E3&amp;"',md5('"&amp;D3&amp;"'),1);"</f>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059063','DE NY','ARTHUR','4',md5('19059063'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059063','DE NY','ARTHUR','2',md5('19059063'),1);</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -5012,12 +5012,12 @@
         <v>194</v>
       </c>
       <c r="E4">
-        <f>VLOOKUP(A4,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A4,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059068','DESTOMBES','FLORIAN','4',md5('19059068'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059068','DESTOMBES','FLORIAN','2',md5('19059068'),1);</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -5034,12 +5034,12 @@
         <v>197</v>
       </c>
       <c r="E5">
-        <f>VLOOKUP(A5,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A5,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059061','GROUST','NICOLAS','4',md5('19059061'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059061','GROUST','NICOLAS','2',md5('19059061'),1);</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -5056,12 +5056,12 @@
         <v>200</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(A6,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A6,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059054','MAIK','JULIEN','4',md5('19059054'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059054','MAIK','JULIEN','2',md5('19059054'),1);</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5078,12 +5078,12 @@
         <v>203</v>
       </c>
       <c r="E7">
-        <f>VLOOKUP(A7,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A7,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059057','RAOULT','DAMIEN','4',md5('19059057'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059057','RAOULT','DAMIEN','2',md5('19059057'),1);</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -5100,12 +5100,12 @@
         <v>206</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(A8,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A8,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059070','RODRIGUES','GUILLAUME','4',md5('19059070'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19059070','RODRIGUES','GUILLAUME','2',md5('19059070'),1);</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5122,12 +5122,12 @@
         <v>209</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(A9,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A9,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19001130','SARGSYAN','SUREN','4',md5('19001130'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19001130','SARGSYAN','SUREN','2',md5('19001130'),1);</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -5144,12 +5144,12 @@
         <v>212</v>
       </c>
       <c r="E10">
-        <f>VLOOKUP(A10,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A10,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19055674','ISSENGUEL','DOMINGOS','4',md5('19055674'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19055674','ISSENGUEL','DOMINGOS','2',md5('19055674'),1);</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,12 +5166,12 @@
         <v>215</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(A11,Offre!$A:$E,4,0)</f>
-        <v>4</v>
+        <f>VLOOKUP(A11,Offre!$A:$E,5,0)</f>
+        <v>2</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18131623','OBA ZANGA','OBERLIN','4',md5('18131623'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18131623','OBA ZANGA','OBERLIN','2',md5('18131623'),1);</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,12 +5188,12 @@
         <v>218</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(A12,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A12,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129535','BARENNE','LAURE','12',md5('19129535'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129535','BARENNE','LAURE','3',md5('19129535'),1);</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5210,12 +5210,12 @@
         <v>220</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(A13,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A13,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124847','DENOYELLE','AMELIE','12',md5('19124847'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124847','DENOYELLE','AMELIE','3',md5('19124847'),1);</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5232,12 +5232,12 @@
         <v>222</v>
       </c>
       <c r="E14">
-        <f>VLOOKUP(A14,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A14,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129549','DESCHILDRE','FREDERIC','12',md5('19129549'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129549','DESCHILDRE','FREDERIC','3',md5('19129549'),1);</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5254,12 +5254,12 @@
         <v>225</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(A15,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A15,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129518','DUFOUR','DAVID','12',md5('19129518'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129518','DUFOUR','DAVID','3',md5('19129518'),1);</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,12 +5276,12 @@
         <v>228</v>
       </c>
       <c r="E16">
-        <f>VLOOKUP(A16,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A16,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129490','ENGAMBA','HANNA','12',md5('19129490'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129490','ENGAMBA','HANNA','3',md5('19129490'),1);</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -5298,12 +5298,12 @@
         <v>231</v>
       </c>
       <c r="E17">
-        <f>VLOOKUP(A17,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A17,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129461','LEMAIRE','ANGELIQUE','12',md5('19129461'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129461','LEMAIRE','ANGELIQUE','3',md5('19129461'),1);</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5320,12 +5320,12 @@
         <v>234</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(A18,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A18,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129486','MEESEMAECKER','MEGANE','12',md5('19129486'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129486','MEESEMAECKER','MEGANE','3',md5('19129486'),1);</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5342,12 +5342,12 @@
         <v>237</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(A19,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A19,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129497','MEULLEMIESTRE','CATHERINE','12',md5('19129497'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129497','MEULLEMIESTRE','CATHERINE','3',md5('19129497'),1);</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5364,12 +5364,12 @@
         <v>240</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(A20,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A20,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129560','MOREAU','JOSUE','12',md5('19129560'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129560','MOREAU','JOSUE','3',md5('19129560'),1);</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5386,12 +5386,12 @@
         <v>243</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(A21,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A21,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129504','SAUVAGE','MATTHIEU','12',md5('19129504'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129504','SAUVAGE','MATTHIEU','3',md5('19129504'),1);</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5408,12 +5408,12 @@
         <v>246</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(A22,Offre!$A:$E,4,0)</f>
-        <v>12</v>
+        <f>VLOOKUP(A22,Offre!$A:$E,5,0)</f>
+        <v>3</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135951','TOUSSAINT','JEAN-BAPTISTE','12',md5('19135951'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135951','TOUSSAINT','JEAN-BAPTISTE','3',md5('19135951'),1);</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,12 +5430,12 @@
         <v>249</v>
       </c>
       <c r="E23">
-        <f>VLOOKUP(A23,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A23,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088209','CHAUSSOY','ADRIEN','6',md5('19088209'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088209','CHAUSSOY','ADRIEN','4',md5('19088209'),1);</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5452,12 +5452,12 @@
         <v>252</v>
       </c>
       <c r="E24">
-        <f>VLOOKUP(A24,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A24,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088208','COLLE','MARVIN','6',md5('19088208'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088208','COLLE','MARVIN','4',md5('19088208'),1);</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5474,12 +5474,12 @@
         <v>255</v>
       </c>
       <c r="E25">
-        <f>VLOOKUP(A25,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A25,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088200','MZE BOINA','NASMA','6',md5('19088200'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088200','MZE BOINA','NASMA','4',md5('19088200'),1);</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5496,12 +5496,12 @@
         <v>258</v>
       </c>
       <c r="E26">
-        <f>VLOOKUP(A26,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A26,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08134945','PATTAN','SINHA','6',md5('08134945'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08134945','PATTAN','SINHA','4',md5('08134945'),1);</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5518,12 +5518,12 @@
         <v>261</v>
       </c>
       <c r="E27">
-        <f>VLOOKUP(A27,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A27,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19090175','ROBAEY','YANNICK','6',md5('19090175'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19090175','ROBAEY','YANNICK','4',md5('19090175'),1);</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5540,12 +5540,12 @@
         <v>264</v>
       </c>
       <c r="E28">
-        <f>VLOOKUP(A28,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A28,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088198','ROUSSELLE','ROMAIN','6',md5('19088198'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088198','ROUSSELLE','ROMAIN','4',md5('19088198'),1);</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5562,12 +5562,12 @@
         <v>267</v>
       </c>
       <c r="E29">
-        <f>VLOOKUP(A29,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A29,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088204','VEROVE','BRANDON','6',md5('19088204'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19088204','VEROVE','BRANDON','4',md5('19088204'),1);</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5584,12 +5584,12 @@
         <v>270</v>
       </c>
       <c r="E30">
-        <f>VLOOKUP(A30,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A30,Offre!$A:$E,5,0)</f>
+        <v>4</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19084150','AHAMADA LOUFTI','SAADIA','6',md5('19084150'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19084150','AHAMADA LOUFTI','SAADIA','4',md5('19084150'),1);</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5606,12 +5606,12 @@
         <v>273</v>
       </c>
       <c r="E31">
-        <f>VLOOKUP(A31,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A31,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118554','AHMED','ALEXIA','14',md5('19118554'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118554','AHMED','ALEXIA','5',md5('19118554'),1);</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5628,12 +5628,12 @@
         <v>276</v>
       </c>
       <c r="E32">
-        <f>VLOOKUP(A32,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A32,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104847','GUILBERT','ANNE SOPHIE','14',md5('19104847'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104847','GUILBERT','ANNE SOPHIE','5',md5('19104847'),1);</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5650,12 +5650,12 @@
         <v>279</v>
       </c>
       <c r="E33">
-        <f>VLOOKUP(A33,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A33,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104879','GUILLEMOT','MARLENE','14',md5('19104879'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104879','GUILLEMOT','MARLENE','5',md5('19104879'),1);</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5672,12 +5672,12 @@
         <v>282</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(A34,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A34,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105319','HUMBLOT','NADJIMAT','14',md5('19105319'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105319','HUMBLOT','NADJIMAT','5',md5('19105319'),1);</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5694,12 +5694,12 @@
         <v>285</v>
       </c>
       <c r="E35">
-        <f>VLOOKUP(A35,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A35,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104872','LEFÈVRE','JADE','14',md5('19104872'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19104872','LEFÈVRE','JADE','5',md5('19104872'),1);</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5716,12 +5716,12 @@
         <v>287</v>
       </c>
       <c r="E36">
-        <f>VLOOKUP(A36,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A36,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19123785','OUSSET','ARNAUD','14',md5('19123785'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19123785','OUSSET','ARNAUD','5',md5('19123785'),1);</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -5738,12 +5738,12 @@
         <v>290</v>
       </c>
       <c r="E37">
-        <f>VLOOKUP(A37,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A37,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105277','PHILIPPE','SANDRINE','14',md5('19105277'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105277','PHILIPPE','SANDRINE','5',md5('19105277'),1);</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,12 +5760,12 @@
         <v>293</v>
       </c>
       <c r="E38">
-        <f>VLOOKUP(A38,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A38,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19121754','POUWELS','DANIELLA','14',md5('19121754'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19121754','POUWELS','DANIELLA','5',md5('19121754'),1);</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5782,12 +5782,12 @@
         <v>296</v>
       </c>
       <c r="E39">
-        <f>VLOOKUP(A39,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A39,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16156520','TURBOT','JULIE','14',md5('16156520'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16156520','TURBOT','JULIE','5',md5('16156520'),1);</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5804,12 +5804,12 @@
         <v>298</v>
       </c>
       <c r="E40">
-        <f>VLOOKUP(A40,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A40,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105285','TYROU','MARYLINE','14',md5('19105285'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105285','TYROU','MARYLINE','5',md5('19105285'),1);</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,12 +5826,12 @@
         <v>301</v>
       </c>
       <c r="E41">
-        <f>VLOOKUP(A41,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A41,Offre!$A:$E,5,0)</f>
+        <v>5</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105290','WARNIER','CATHY','14',md5('19105290'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105290','WARNIER','CATHY','5',md5('19105290'),1);</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5848,12 +5848,12 @@
         <v>304</v>
       </c>
       <c r="E42">
-        <f>VLOOKUP(A42,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A42,Offre!$A:$E,5,0)</f>
+        <v>6</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135115','MARCQ','ISABELLE','18',md5('19135115'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135115','MARCQ','ISABELLE','6',md5('19135115'),1);</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5870,12 +5870,12 @@
         <v>306</v>
       </c>
       <c r="E43">
-        <f>VLOOKUP(A43,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A43,Offre!$A:$E,5,0)</f>
+        <v>6</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135094','NOYELLE','LAURE','18',md5('19135094'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135094','NOYELLE','LAURE','6',md5('19135094'),1);</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5892,12 +5892,12 @@
         <v>308</v>
       </c>
       <c r="E44">
-        <f>VLOOKUP(A44,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A44,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129803','ALLAIN','NICOLAS','9',md5('19129803'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129803','ALLAIN','NICOLAS','7',md5('19129803'),1);</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5914,12 +5914,12 @@
         <v>310</v>
       </c>
       <c r="E45">
-        <f>VLOOKUP(A45,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A45,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18073132','CORDONNIER','LAURENT','9',md5('18073132'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18073132','CORDONNIER','LAURENT','7',md5('18073132'),1);</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5936,12 +5936,12 @@
         <v>313</v>
       </c>
       <c r="E46">
-        <f>VLOOKUP(A46,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A46,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129719','COULIBALY','SOULEYMANE','9',md5('19129719'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129719','COULIBALY','SOULEYMANE','7',md5('19129719'),1);</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5958,12 +5958,12 @@
         <v>315</v>
       </c>
       <c r="E47">
-        <f>VLOOKUP(A47,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A47,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129910','DUBOS','ROMAIN','9',md5('19129910'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129910','DUBOS','ROMAIN','7',md5('19129910'),1);</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5980,12 +5980,12 @@
         <v>318</v>
       </c>
       <c r="E48">
-        <f>VLOOKUP(A48,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A48,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129710','HASSINI','TAOUFIK','9',md5('19129710'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129710','HASSINI','TAOUFIK','7',md5('19129710'),1);</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -6002,12 +6002,12 @@
         <v>321</v>
       </c>
       <c r="E49">
-        <f>VLOOKUP(A49,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A49,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129829','HENON','RUDY','9',md5('19129829'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129829','HENON','RUDY','7',md5('19129829'),1);</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6024,12 +6024,12 @@
         <v>324</v>
       </c>
       <c r="E50">
-        <f>VLOOKUP(A50,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A50,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08051024','HOUSIEAUX','ROMUALD','9',md5('08051024'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08051024','HOUSIEAUX','ROMUALD','7',md5('08051024'),1);</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,12 +6046,12 @@
         <v>327</v>
       </c>
       <c r="E51">
-        <f>VLOOKUP(A51,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A51,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129797','LEMOINE','FABRICE','9',md5('19129797'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129797','LEMOINE','FABRICE','7',md5('19129797'),1);</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -6068,12 +6068,12 @@
         <v>330</v>
       </c>
       <c r="E52">
-        <f>VLOOKUP(A52,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A52,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19073812','LOYER','JEROME','9',md5('19073812'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19073812','LOYER','JEROME','7',md5('19073812'),1);</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -6090,12 +6090,12 @@
         <v>333</v>
       </c>
       <c r="E53">
-        <f>VLOOKUP(A53,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A53,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129916','SIWEK','JEREMY','9',md5('19129916'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129916','SIWEK','JEREMY','7',md5('19129916'),1);</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -6112,12 +6112,12 @@
         <v>336</v>
       </c>
       <c r="E54">
-        <f>VLOOKUP(A54,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A54,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129721','VERLOMME','CLEMENT','9',md5('19129721'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129721','VERLOMME','CLEMENT','7',md5('19129721'),1);</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -6134,12 +6134,12 @@
         <v>339</v>
       </c>
       <c r="E55">
-        <f>VLOOKUP(A55,Offre!$A:$E,4,0)</f>
-        <v>9</v>
+        <f>VLOOKUP(A55,Offre!$A:$E,5,0)</f>
+        <v>7</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19133825','REMY','BRIAN','9',md5('19133825'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19133825','REMY','BRIAN','7',md5('19133825'),1);</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,12 +6156,12 @@
         <v>342</v>
       </c>
       <c r="E56">
-        <f>VLOOKUP(A56,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A56,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095744','AFAKIR','ABDOULHA','15',md5('19095744'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095744','AFAKIR','ABDOULHA','8',md5('19095744'),1);</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6178,12 +6178,12 @@
         <v>345</v>
       </c>
       <c r="E57">
-        <f>VLOOKUP(A57,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A57,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095759','AHMINE','YOUNES','15',md5('19095759'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095759','AHMINE','YOUNES','8',md5('19095759'),1);</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6200,12 +6200,12 @@
         <v>348</v>
       </c>
       <c r="E58">
-        <f>VLOOKUP(A58,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A58,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097800','BAIRY ONAPA','SAMUEL','15',md5('19097800'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097800','BAIRY ONAPA','SAMUEL','8',md5('19097800'),1);</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6222,12 +6222,12 @@
         <v>351</v>
       </c>
       <c r="E59">
-        <f>VLOOKUP(A59,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A59,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097817','BATAILLE','JEAN YVES','15',md5('19097817'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097817','BATAILLE','JEAN YVES','8',md5('19097817'),1);</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -6244,12 +6244,12 @@
         <v>354</v>
       </c>
       <c r="E60">
-        <f>VLOOKUP(A60,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A60,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F60" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19066605','BOUCLET','JIMMY','15',md5('19066605'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19066605','BOUCLET','JIMMY','8',md5('19066605'),1);</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,12 +6266,12 @@
         <v>357</v>
       </c>
       <c r="E61">
-        <f>VLOOKUP(A61,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A61,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095764','DUCROCQ','HICHAM','15',md5('19095764'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095764','DUCROCQ','HICHAM','8',md5('19095764'),1);</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -6288,12 +6288,12 @@
         <v>360</v>
       </c>
       <c r="E62">
-        <f>VLOOKUP(A62,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A62,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F62" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095798','GREVIN','FRANCOIS','15',md5('19095798'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095798','GREVIN','FRANCOIS','8',md5('19095798'),1);</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -6310,12 +6310,12 @@
         <v>362</v>
       </c>
       <c r="E63">
-        <f>VLOOKUP(A63,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A63,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F63" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097811','JOLY','STEPHANE','15',md5('19097811'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097811','JOLY','STEPHANE','8',md5('19097811'),1);</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -6332,12 +6332,12 @@
         <v>364</v>
       </c>
       <c r="E64">
-        <f>VLOOKUP(A64,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A64,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F64" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095789','MARTEEL','ANDRE','15',md5('19095789'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095789','MARTEEL','ANDRE','8',md5('19095789'),1);</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -6354,12 +6354,12 @@
         <v>367</v>
       </c>
       <c r="E65">
-        <f>VLOOKUP(A65,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A65,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F65" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095777','MILLIEN','DYLAN','15',md5('19095777'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095777','MILLIEN','DYLAN','8',md5('19095777'),1);</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6376,12 +6376,12 @@
         <v>369</v>
       </c>
       <c r="E66">
-        <f>VLOOKUP(A66,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A66,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="0"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095774','PRUDHOMME','DAVID','15',md5('19095774'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095774','PRUDHOMME','DAVID','8',md5('19095774'),1);</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6398,12 +6398,12 @@
         <v>372</v>
       </c>
       <c r="E67">
-        <f>VLOOKUP(A67,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A67,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">"insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('"&amp;D67&amp;"','"&amp;B67&amp;"','"&amp;C67&amp;"','"&amp;E67&amp;"',md5('"&amp;D67&amp;"'),1);"</f>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095754','SENDZINSKA','RÉGIS','15',md5('19095754'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095754','SENDZINSKA','RÉGIS','8',md5('19095754'),1);</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6420,12 +6420,12 @@
         <v>375</v>
       </c>
       <c r="E68">
-        <f>VLOOKUP(A68,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A68,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095761','SERIEN','JEAN-BENOÎT','15',md5('19095761'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19095761','SERIEN','JEAN-BENOÎT','8',md5('19095761'),1);</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6442,12 +6442,12 @@
         <v>378</v>
       </c>
       <c r="E69">
-        <f>VLOOKUP(A69,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A69,Offre!$A:$E,5,0)</f>
+        <v>8</v>
       </c>
       <c r="F69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097471','VERBANCK','VINCENT','15',md5('19097471'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19097471','VERBANCK','VINCENT','8',md5('19097471'),1);</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6464,12 +6464,12 @@
         <v>381</v>
       </c>
       <c r="E70">
-        <f>VLOOKUP(A70,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A70,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114132','BERNARD','SOFIAN','19',md5('19114132'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114132','BERNARD','SOFIAN','9',md5('19114132'),1);</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6486,12 +6486,12 @@
         <v>383</v>
       </c>
       <c r="E71">
-        <f>VLOOKUP(A71,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A71,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114119','CHAOUI','AHMED','19',md5('19114119'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114119','CHAOUI','AHMED','9',md5('19114119'),1);</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -6508,12 +6508,12 @@
         <v>386</v>
       </c>
       <c r="E72">
-        <f>VLOOKUP(A72,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A72,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118046','CHEKAIRI','MOHAMED','19',md5('19118046'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118046','CHEKAIRI','MOHAMED','9',md5('19118046'),1);</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6530,12 +6530,12 @@
         <v>389</v>
       </c>
       <c r="E73">
-        <f>VLOOKUP(A73,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A73,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116879','DUPONT','AURÉLIEN','19',md5('19116879'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116879','DUPONT','AURÉLIEN','9',md5('19116879'),1);</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6552,12 +6552,12 @@
         <v>391</v>
       </c>
       <c r="E74">
-        <f>VLOOKUP(A74,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A74,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114134','GHESQUIER','STEPHANE','19',md5('19114134'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114134','GHESQUIER','STEPHANE','9',md5('19114134'),1);</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,12 +6574,12 @@
         <v>394</v>
       </c>
       <c r="E75">
-        <f>VLOOKUP(A75,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A75,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116707','JAAFAR','ABBAS','19',md5('19116707'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116707','JAAFAR','ABBAS','9',md5('19116707'),1);</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -6596,12 +6596,12 @@
         <v>397</v>
       </c>
       <c r="E76">
-        <f>VLOOKUP(A76,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A76,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114131','MAURIN','YVES','19',md5('19114131'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114131','MAURIN','YVES','9',md5('19114131'),1);</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6618,12 +6618,12 @@
         <v>400</v>
       </c>
       <c r="E77">
-        <f>VLOOKUP(A77,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A77,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114108','NEKHOUL','IBRAHIM','19',md5('19114108'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114108','NEKHOUL','IBRAHIM','9',md5('19114108'),1);</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -6640,12 +6640,12 @@
         <v>403</v>
       </c>
       <c r="E78">
-        <f>VLOOKUP(A78,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A78,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114099','TALON','JORDAN','19',md5('19114099'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114099','TALON','JORDAN','9',md5('19114099'),1);</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6662,12 +6662,12 @@
         <v>406</v>
       </c>
       <c r="E79">
-        <f>VLOOKUP(A79,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A79,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118053','TISON','BRUNO','19',md5('19118053'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118053','TISON','BRUNO','9',md5('19118053'),1);</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6684,12 +6684,12 @@
         <v>408</v>
       </c>
       <c r="E80">
-        <f>VLOOKUP(A80,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A80,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F80" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114129','TRAMATZU','THOMAS','19',md5('19114129'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114129','TRAMATZU','THOMAS','9',md5('19114129'),1);</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6706,12 +6706,12 @@
         <v>411</v>
       </c>
       <c r="E81">
-        <f>VLOOKUP(A81,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A81,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F81" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114123','VANENGELANDT','VALENTIN','19',md5('19114123'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114123','VANENGELANDT','VALENTIN','9',md5('19114123'),1);</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -6728,12 +6728,12 @@
         <v>414</v>
       </c>
       <c r="E82">
-        <f>VLOOKUP(A82,Offre!$A:$E,4,0)</f>
-        <v>19</v>
+        <f>VLOOKUP(A82,Offre!$A:$E,5,0)</f>
+        <v>9</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114104','VERPOORT','JONATHAN','19',md5('19114104'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114104','VERPOORT','JONATHAN','9',md5('19114104'),1);</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6750,12 +6750,12 @@
         <v>417</v>
       </c>
       <c r="E83">
-        <f>VLOOKUP(A83,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A83,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F83" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124666','AMICHI','NABIL','1',md5('19124666'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124666','AMICHI','NABIL','10',md5('19124666'),1);</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6772,12 +6772,12 @@
         <v>420</v>
       </c>
       <c r="E84">
-        <f>VLOOKUP(A84,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A84,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124625','BEN MARZOUK','YOUSRA','1',md5('19124625'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124625','BEN MARZOUK','YOUSRA','10',md5('19124625'),1);</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -6794,12 +6794,12 @@
         <v>423</v>
       </c>
       <c r="E85">
-        <f>VLOOKUP(A85,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A85,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F85" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19125649','COLIN','MATHYS','1',md5('19125649'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19125649','COLIN','MATHYS','10',md5('19125649'),1);</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6816,12 +6816,12 @@
         <v>425</v>
       </c>
       <c r="E86">
-        <f>VLOOKUP(A86,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A86,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F86" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18056502','DELEFORGE','NICOLAS','1',md5('18056502'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18056502','DELEFORGE','NICOLAS','10',md5('18056502'),1);</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6838,12 +6838,12 @@
         <v>428</v>
       </c>
       <c r="E87">
-        <f>VLOOKUP(A87,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A87,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124694','DOMAIN','LOIC','1',md5('19124694'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124694','DOMAIN','LOIC','10',md5('19124694'),1);</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,12 +6860,12 @@
         <v>431</v>
       </c>
       <c r="E88">
-        <f>VLOOKUP(A88,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A88,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124703','FONTAINE','BENJAMIN','1',md5('19124703'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124703','FONTAINE','BENJAMIN','10',md5('19124703'),1);</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6882,12 +6882,12 @@
         <v>434</v>
       </c>
       <c r="E89">
-        <f>VLOOKUP(A89,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A89,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124617','MAES','JASON','1',md5('19124617'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124617','MAES','JASON','10',md5('19124617'),1);</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6904,12 +6904,12 @@
         <v>437</v>
       </c>
       <c r="E90">
-        <f>VLOOKUP(A90,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A90,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19126052','MAQUINGHEN','MEDERIC','1',md5('19126052'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19126052','MAQUINGHEN','MEDERIC','10',md5('19126052'),1);</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6926,12 +6926,12 @@
         <v>440</v>
       </c>
       <c r="E91">
-        <f>VLOOKUP(A91,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A91,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124671','MONTIEL','NATHANAEL','1',md5('19124671'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124671','MONTIEL','NATHANAEL','10',md5('19124671'),1);</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6948,12 +6948,12 @@
         <v>443</v>
       </c>
       <c r="E92">
-        <f>VLOOKUP(A92,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A92,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124605','POSON','ALAN','1',md5('19124605'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124605','POSON','ALAN','10',md5('19124605'),1);</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6970,12 +6970,12 @@
         <v>446</v>
       </c>
       <c r="E93">
-        <f>VLOOKUP(A93,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A93,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19126179','PUHETINI','MAXENCE','1',md5('19126179'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19126179','PUHETINI','MAXENCE','10',md5('19126179'),1);</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6992,12 +6992,12 @@
         <v>449</v>
       </c>
       <c r="E94">
-        <f>VLOOKUP(A94,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A94,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124701','SAHIN','VESSILYA','1',md5('19124701'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124701','SAHIN','VESSILYA','10',md5('19124701'),1);</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -7014,12 +7014,12 @@
         <v>452</v>
       </c>
       <c r="E95">
-        <f>VLOOKUP(A95,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A95,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('17068850','VERAGHE','ALISON','1',md5('17068850'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('17068850','VERAGHE','ALISON','10',md5('17068850'),1);</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -7036,12 +7036,12 @@
         <v>455</v>
       </c>
       <c r="E96">
-        <f>VLOOKUP(A96,Offre!$A:$E,4,0)</f>
-        <v>1</v>
+        <f>VLOOKUP(A96,Offre!$A:$E,5,0)</f>
+        <v>10</v>
       </c>
       <c r="F96" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124708','WILLIART','BAPTISTE','1',md5('19124708'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19124708','WILLIART','BAPTISTE','10',md5('19124708'),1);</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -7058,12 +7058,12 @@
         <v>458</v>
       </c>
       <c r="E97">
-        <f>VLOOKUP(A97,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A97,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F97" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130587','ALLEBEE','SEBASTIEN','5',md5('19130587'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130587','ALLEBEE','SEBASTIEN','11',md5('19130587'),1);</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -7080,12 +7080,12 @@
         <v>461</v>
       </c>
       <c r="E98">
-        <f>VLOOKUP(A98,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A98,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F98" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16146185','BOUSSALIA','ZOHEIR','5',md5('16146185'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16146185','BOUSSALIA','ZOHEIR','11',md5('16146185'),1);</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -7102,12 +7102,12 @@
         <v>463</v>
       </c>
       <c r="E99">
-        <f>VLOOKUP(A99,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A99,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F99" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130261','DUTILLY','CEDRIC','5',md5('19130261'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130261','DUTILLY','CEDRIC','11',md5('19130261'),1);</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -7124,12 +7124,12 @@
         <v>466</v>
       </c>
       <c r="E100">
-        <f>VLOOKUP(A100,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A100,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F100" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20002388','FAUCHOIT','MELYNE','5',md5('20002388'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20002388','FAUCHOIT','MELYNE','11',md5('20002388'),1);</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7146,12 +7146,12 @@
         <v>469</v>
       </c>
       <c r="E101">
-        <f>VLOOKUP(A101,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A101,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F101" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130551','KANDZA','CHRIS ANA-MAR','5',md5('19130551'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130551','KANDZA','CHRIS ANA-MAR','11',md5('19130551'),1);</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -7168,12 +7168,12 @@
         <v>472</v>
       </c>
       <c r="E102">
-        <f>VLOOKUP(A102,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A102,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F102" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19107089','LEBRUN','MICKAEL','5',md5('19107089'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19107089','LEBRUN','MICKAEL','11',md5('19107089'),1);</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -7190,12 +7190,12 @@
         <v>475</v>
       </c>
       <c r="E103">
-        <f>VLOOKUP(A103,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A103,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F103" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130263','LUONG','SAY','5',md5('19130263'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130263','LUONG','SAY','11',md5('19130263'),1);</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -7212,12 +7212,12 @@
         <v>478</v>
       </c>
       <c r="E104">
-        <f>VLOOKUP(A104,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A104,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F104" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137522','MEKILSEN','KEVIN','5',md5('19137522'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137522','MEKILSEN','KEVIN','11',md5('19137522'),1);</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -7234,12 +7234,12 @@
         <v>480</v>
       </c>
       <c r="E105">
-        <f>VLOOKUP(A105,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A105,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130570','PATFOORT','CEDRIC','5',md5('19130570'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130570','PATFOORT','CEDRIC','11',md5('19130570'),1);</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -7256,12 +7256,12 @@
         <v>483</v>
       </c>
       <c r="E106">
-        <f>VLOOKUP(A106,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A106,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F106" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20002360','SBAAI','ISSAM','5',md5('20002360'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20002360','SBAAI','ISSAM','11',md5('20002360'),1);</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -7278,12 +7278,12 @@
         <v>485</v>
       </c>
       <c r="E107">
-        <f>VLOOKUP(A107,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A107,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F107" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130579','TAINE','LOIC','5',md5('19130579'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130579','TAINE','LOIC','11',md5('19130579'),1);</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7300,12 +7300,12 @@
         <v>487</v>
       </c>
       <c r="E108">
-        <f>VLOOKUP(A108,Offre!$A:$E,4,0)</f>
-        <v>5</v>
+        <f>VLOOKUP(A108,Offre!$A:$E,5,0)</f>
+        <v>11</v>
       </c>
       <c r="F108" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18125656','THERY','BENJAMIN','5',md5('18125656'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18125656','THERY','BENJAMIN','11',md5('18125656'),1);</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -7322,12 +7322,12 @@
         <v>490</v>
       </c>
       <c r="E109">
-        <f>VLOOKUP(A109,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A109,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F109" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19099263','KUREZOBA','LISA','2',md5('19099263'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19099263','KUREZOBA','LISA','12',md5('19099263'),1);</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -7344,12 +7344,12 @@
         <v>493</v>
       </c>
       <c r="E110">
-        <f>VLOOKUP(A110,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A110,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118210','BAUDSON','SYLVIE','2',md5('19118210'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118210','BAUDSON','SYLVIE','12',md5('19118210'),1);</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7366,12 +7366,12 @@
         <v>496</v>
       </c>
       <c r="E111">
-        <f>VLOOKUP(A111,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A111,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F111" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118217','BENKOUCHANE','ZAHRA','2',md5('19118217'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118217','BENKOUCHANE','ZAHRA','12',md5('19118217'),1);</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -7388,12 +7388,12 @@
         <v>499</v>
       </c>
       <c r="E112">
-        <f>VLOOKUP(A112,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A112,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F112" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19120922','BOUTEILLE','LAETITIA','2',md5('19120922'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19120922','BOUTEILLE','LAETITIA','12',md5('19120922'),1);</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7410,12 +7410,12 @@
         <v>502</v>
       </c>
       <c r="E113">
-        <f>VLOOKUP(A113,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A113,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118162','CAUVIN','VALENTINE','2',md5('19118162'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118162','CAUVIN','VALENTINE','12',md5('19118162'),1);</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,12 +7432,12 @@
         <v>504</v>
       </c>
       <c r="E114">
-        <f>VLOOKUP(A114,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A114,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118586','CHUFFART','SYLVIE','2',md5('19118586'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118586','CHUFFART','SYLVIE','12',md5('19118586'),1);</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7454,12 +7454,12 @@
         <v>507</v>
       </c>
       <c r="E115">
-        <f>VLOOKUP(A115,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A115,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F115" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118160','DANGREAUX','ANNE-LISE','2',md5('19118160'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118160','DANGREAUX','ANNE-LISE','12',md5('19118160'),1);</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -7476,12 +7476,12 @@
         <v>509</v>
       </c>
       <c r="E116">
-        <f>VLOOKUP(A116,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A116,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118590','DENUNCQ','ISABELLE','2',md5('19118590'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118590','DENUNCQ','ISABELLE','12',md5('19118590'),1);</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7498,12 +7498,12 @@
         <v>512</v>
       </c>
       <c r="E117">
-        <f>VLOOKUP(A117,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A117,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F117" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118169','DUBUISSON','MARIE','2',md5('19118169'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118169','DUBUISSON','MARIE','12',md5('19118169'),1);</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7520,12 +7520,12 @@
         <v>514</v>
       </c>
       <c r="E118">
-        <f>VLOOKUP(A118,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A118,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F118" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118578','DUREZ','ISABELLE','2',md5('19118578'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118578','DUREZ','ISABELLE','12',md5('19118578'),1);</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -7542,12 +7542,12 @@
         <v>517</v>
       </c>
       <c r="E119">
-        <f>VLOOKUP(A119,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A119,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F119" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118164','FABIS','JULIETTE','2',md5('19118164'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118164','FABIS','JULIETTE','12',md5('19118164'),1);</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7564,12 +7564,12 @@
         <v>520</v>
       </c>
       <c r="E120">
-        <f>VLOOKUP(A120,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A120,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118231','FAUCONNIER','DAISY','2',md5('19118231'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118231','FAUCONNIER','DAISY','12',md5('19118231'),1);</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,12 +7586,12 @@
         <v>522</v>
       </c>
       <c r="E121">
-        <f>VLOOKUP(A121,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A121,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F121" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118166','FAVRESSE','ANGELIQUE','2',md5('19118166'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118166','FAVRESSE','ANGELIQUE','12',md5('19118166'),1);</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -7608,12 +7608,12 @@
         <v>524</v>
       </c>
       <c r="E122">
-        <f>VLOOKUP(A122,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A122,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F122" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118240','FICQUET','SEVERINE','2',md5('19118240'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118240','FICQUET','SEVERINE','12',md5('19118240'),1);</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -7630,12 +7630,12 @@
         <v>527</v>
       </c>
       <c r="E123">
-        <f>VLOOKUP(A123,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A123,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F123" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118225','SAILLY','PEGGY','2',md5('19118225'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118225','SAILLY','PEGGY','12',md5('19118225'),1);</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -7652,12 +7652,12 @@
         <v>530</v>
       </c>
       <c r="E124">
-        <f>VLOOKUP(A124,Offre!$A:$E,4,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(A124,Offre!$A:$E,5,0)</f>
+        <v>12</v>
       </c>
       <c r="F124" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118254','TESSON','BRIGITTE','2',md5('19118254'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19118254','TESSON','BRIGITTE','12',md5('19118254'),1);</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -7674,12 +7674,12 @@
         <v>533</v>
       </c>
       <c r="E125">
-        <f>VLOOKUP(A125,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A125,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F125" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132050','BERTONCINI','FLORENT','20',md5('19132050'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132050','BERTONCINI','FLORENT','13',md5('19132050'),1);</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -7696,12 +7696,12 @@
         <v>536</v>
       </c>
       <c r="E126">
-        <f>VLOOKUP(A126,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A126,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131850','DELVAL','JEMMY','20',md5('19131850'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131850','DELVAL','JEMMY','13',md5('19131850'),1);</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -7718,12 +7718,12 @@
         <v>539</v>
       </c>
       <c r="E127">
-        <f>VLOOKUP(A127,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A127,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F127" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137693','FROMENT','MATHIEU','20',md5('19137693'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137693','FROMENT','MATHIEU','13',md5('19137693'),1);</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -7740,12 +7740,12 @@
         <v>541</v>
       </c>
       <c r="E128">
-        <f>VLOOKUP(A128,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A128,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F128" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132055','GAGNANT','JEREMY','20',md5('19132055'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132055','GAGNANT','JEREMY','13',md5('19132055'),1);</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7762,12 +7762,12 @@
         <v>543</v>
       </c>
       <c r="E129">
-        <f>VLOOKUP(A129,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A129,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F129" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131359','MURAGLIA','THOMAS','20',md5('19131359'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131359','MURAGLIA','THOMAS','13',md5('19131359'),1);</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -7784,12 +7784,12 @@
         <v>545</v>
       </c>
       <c r="E130">
-        <f>VLOOKUP(A130,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A130,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131345','OUTTERYCK','LAURENT','20',md5('19131345'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131345','OUTTERYCK','LAURENT','13',md5('19131345'),1);</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -7806,12 +7806,12 @@
         <v>548</v>
       </c>
       <c r="E131">
-        <f>VLOOKUP(A131,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A131,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F131" t="str">
         <f t="shared" ref="F131:F194" si="2">"insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('"&amp;D131&amp;"','"&amp;B131&amp;"','"&amp;C131&amp;"','"&amp;E131&amp;"',md5('"&amp;D131&amp;"'),1);"</f>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131328','PIERRU','MICHAEL','20',md5('19131328'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131328','PIERRU','MICHAEL','13',md5('19131328'),1);</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -7828,12 +7828,12 @@
         <v>550</v>
       </c>
       <c r="E132">
-        <f>VLOOKUP(A132,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A132,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131317','PIETERS','PASCAL','20',md5('19131317'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131317','PIETERS','PASCAL','13',md5('19131317'),1);</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7850,12 +7850,12 @@
         <v>553</v>
       </c>
       <c r="E133">
-        <f>VLOOKUP(A133,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A133,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F133" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131350','RISCHEBE','JOSSELIN','20',md5('19131350'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131350','RISCHEBE','JOSSELIN','13',md5('19131350'),1);</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7872,12 +7872,12 @@
         <v>556</v>
       </c>
       <c r="E134">
-        <f>VLOOKUP(A134,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A134,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F134" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131321','TALHI','DJAMELDINE','20',md5('19131321'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131321','TALHI','DJAMELDINE','13',md5('19131321'),1);</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7894,12 +7894,12 @@
         <v>557</v>
       </c>
       <c r="E135">
-        <f>VLOOKUP(A135,Offre!$A:$E,4,0)</f>
-        <v>20</v>
+        <f>VLOOKUP(A135,Offre!$A:$E,5,0)</f>
+        <v>13</v>
       </c>
       <c r="F135" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19064282','VASSEUR','JEROME','20',md5('19064282'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19064282','VASSEUR','JEROME','13',md5('19064282'),1);</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7916,12 +7916,12 @@
         <v>559</v>
       </c>
       <c r="E136">
-        <f>VLOOKUP(A136,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A136,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F136" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132301','BLAVOET','JONATHAN','8',md5('19132301'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132301','BLAVOET','JONATHAN','14',md5('19132301'),1);</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7938,12 +7938,12 @@
         <v>561</v>
       </c>
       <c r="E137">
-        <f>VLOOKUP(A137,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A137,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F137" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132304','CAPRON','FLORENT','8',md5('19132304'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132304','CAPRON','FLORENT','14',md5('19132304'),1);</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -7960,12 +7960,12 @@
         <v>563</v>
       </c>
       <c r="E138">
-        <f>VLOOKUP(A138,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A138,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F138" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132284','DECROOCQ','VALENTIN','8',md5('19132284'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132284','DECROOCQ','VALENTIN','14',md5('19132284'),1);</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -7982,12 +7982,12 @@
         <v>566</v>
       </c>
       <c r="E139">
-        <f>VLOOKUP(A139,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A139,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132296','KOBON','YAN','8',md5('19132296'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132296','KOBON','YAN','14',md5('19132296'),1);</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -8004,12 +8004,12 @@
         <v>569</v>
       </c>
       <c r="E140">
-        <f>VLOOKUP(A140,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A140,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F140" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132298','NUTER','ALBAN','8',md5('19132298'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132298','NUTER','ALBAN','14',md5('19132298'),1);</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -8026,12 +8026,12 @@
         <v>572</v>
       </c>
       <c r="E141">
-        <f>VLOOKUP(A141,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A141,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139022','POLLAERT','ENZO','8',md5('19139022'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139022','POLLAERT','ENZO','14',md5('19139022'),1);</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -8048,12 +8048,12 @@
         <v>575</v>
       </c>
       <c r="E142">
-        <f>VLOOKUP(A142,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A142,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F142" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132303','SACI','THEO','8',md5('19132303'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132303','SACI','THEO','14',md5('19132303'),1);</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -8070,12 +8070,12 @@
         <v>578</v>
       </c>
       <c r="E143">
-        <f>VLOOKUP(A143,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A143,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139012','SCHUPPE','HUGO','8',md5('19139012'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139012','SCHUPPE','HUGO','14',md5('19139012'),1);</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -8092,12 +8092,12 @@
         <v>581</v>
       </c>
       <c r="E144">
-        <f>VLOOKUP(A144,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A144,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132308','TERNY','CAROLINE','8',md5('19132308'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132308','TERNY','CAROLINE','14',md5('19132308'),1);</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -8114,12 +8114,12 @@
         <v>584</v>
       </c>
       <c r="E145">
-        <f>VLOOKUP(A145,Offre!$A:$E,4,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(A145,Offre!$A:$E,5,0)</f>
+        <v>14</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132306','WILLE','SIMON','8',md5('19132306'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19132306','WILLE','SIMON','14',md5('19132306'),1);</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -8136,12 +8136,12 @@
         <v>587</v>
       </c>
       <c r="E146">
-        <f>VLOOKUP(A146,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A146,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F146" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101750','AGEZ','JOHANNA','13',md5('19101750'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101750','AGEZ','JOHANNA','15',md5('19101750'),1);</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -8158,12 +8158,12 @@
         <v>590</v>
       </c>
       <c r="E147">
-        <f>VLOOKUP(A147,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A147,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F147" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101834','BERTELOOT','CHRISTELLE','13',md5('19101834'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101834','BERTELOOT','CHRISTELLE','15',md5('19101834'),1);</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -8180,12 +8180,12 @@
         <v>593</v>
       </c>
       <c r="E148">
-        <f>VLOOKUP(A148,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A148,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F148" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101840','BOUTON','LUDIVINE','13',md5('19101840'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101840','BOUTON','LUDIVINE','15',md5('19101840'),1);</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -8202,12 +8202,12 @@
         <v>596</v>
       </c>
       <c r="E149">
-        <f>VLOOKUP(A149,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A149,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101773','BUNIET','AGNES','13',md5('19101773'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101773','BUNIET','AGNES','15',md5('19101773'),1);</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -8224,12 +8224,12 @@
         <v>599</v>
       </c>
       <c r="E150">
-        <f>VLOOKUP(A150,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A150,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101855','CHARLON','ANNIE','13',md5('19101855'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101855','CHARLON','ANNIE','15',md5('19101855'),1);</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8246,12 +8246,12 @@
         <v>602</v>
       </c>
       <c r="E151">
-        <f>VLOOKUP(A151,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A151,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F151" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101826','DEMASSIEUX','MARIE LOU','13',md5('19101826'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101826','DEMASSIEUX','MARIE LOU','15',md5('19101826'),1);</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -8268,12 +8268,12 @@
         <v>605</v>
       </c>
       <c r="E152">
-        <f>VLOOKUP(A152,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A152,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101843','DENYS','LYSIANE','13',md5('19101843'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101843','DENYS','LYSIANE','15',md5('19101843'),1);</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -8290,12 +8290,12 @@
         <v>608</v>
       </c>
       <c r="E153">
-        <f>VLOOKUP(A153,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A153,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F153" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101812','FERYN','AURORE','13',md5('19101812'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101812','FERYN','AURORE','15',md5('19101812'),1);</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -8312,12 +8312,12 @@
         <v>611</v>
       </c>
       <c r="E154">
-        <f>VLOOKUP(A154,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A154,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F154" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101783','MAHROUG','LAHOUARI','13',md5('19101783'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101783','MAHROUG','LAHOUARI','15',md5('19101783'),1);</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -8334,12 +8334,12 @@
         <v>613</v>
       </c>
       <c r="E155">
-        <f>VLOOKUP(A155,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A155,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101787','MANCEAU','HELENE','13',md5('19101787'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101787','MANCEAU','HELENE','15',md5('19101787'),1);</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8356,12 +8356,12 @@
         <v>616</v>
       </c>
       <c r="E156">
-        <f>VLOOKUP(A156,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A156,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F156" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101851','STROSBERG','MARIE PIERRE','13',md5('19101851'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101851','STROSBERG','MARIE PIERRE','15',md5('19101851'),1);</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -8378,12 +8378,12 @@
         <v>619</v>
       </c>
       <c r="E157">
-        <f>VLOOKUP(A157,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A157,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F157" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101795','VAAST','FRANCOISE','13',md5('19101795'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101795','VAAST','FRANCOISE','15',md5('19101795'),1);</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8400,12 +8400,12 @@
         <v>621</v>
       </c>
       <c r="E158">
-        <f>VLOOKUP(A158,Offre!$A:$E,4,0)</f>
-        <v>13</v>
+        <f>VLOOKUP(A158,Offre!$A:$E,5,0)</f>
+        <v>15</v>
       </c>
       <c r="F158" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101736','VINAGRE','FREDERIC','13',md5('19101736'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19101736','VINAGRE','FREDERIC','15',md5('19101736'),1);</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8422,12 +8422,12 @@
         <v>624</v>
       </c>
       <c r="E159">
-        <f>VLOOKUP(A159,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A159,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116714','BOUGEROLLE','MAXIME','21',md5('19116714'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19116714','BOUGEROLLE','MAXIME','16',md5('19116714'),1);</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -8444,12 +8444,12 @@
         <v>626</v>
       </c>
       <c r="E160">
-        <f>VLOOKUP(A160,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A160,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114874','CATHERINE','MARINA','21',md5('19114874'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114874','CATHERINE','MARINA','16',md5('19114874'),1);</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -8466,12 +8466,12 @@
         <v>629</v>
       </c>
       <c r="E161">
-        <f>VLOOKUP(A161,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A161,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114880','COULBAUX','MELANIE','21',md5('19114880'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114880','COULBAUX','MELANIE','16',md5('19114880'),1);</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -8488,12 +8488,12 @@
         <v>632</v>
       </c>
       <c r="E162">
-        <f>VLOOKUP(A162,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A162,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114814','LECOMPTE','ALICIA','21',md5('19114814'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114814','LECOMPTE','ALICIA','16',md5('19114814'),1);</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -8510,12 +8510,12 @@
         <v>635</v>
       </c>
       <c r="E163">
-        <f>VLOOKUP(A163,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A163,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114834','LECRAS','LAURA','21',md5('19114834'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114834','LECRAS','LAURA','16',md5('19114834'),1);</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -8532,12 +8532,12 @@
         <v>638</v>
       </c>
       <c r="E164">
-        <f>VLOOKUP(A164,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A164,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114823','LEMAITRE','AUDREY','21',md5('19114823'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114823','LEMAITRE','AUDREY','16',md5('19114823'),1);</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -8554,12 +8554,12 @@
         <v>640</v>
       </c>
       <c r="E165">
-        <f>VLOOKUP(A165,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A165,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114838','LEROY','BENJAMIN','21',md5('19114838'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114838','LEROY','BENJAMIN','16',md5('19114838'),1);</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -8576,12 +8576,12 @@
         <v>643</v>
       </c>
       <c r="E166">
-        <f>VLOOKUP(A166,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A166,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114830','LIERE','ELISA','21',md5('19114830'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114830','LIERE','ELISA','16',md5('19114830'),1);</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8598,12 +8598,12 @@
         <v>646</v>
       </c>
       <c r="E167">
-        <f>VLOOKUP(A167,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A167,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114795','SAINT MAXIN','ANAIS','21',md5('19114795'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114795','SAINT MAXIN','ANAIS','16',md5('19114795'),1);</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -8620,12 +8620,12 @@
         <v>648</v>
       </c>
       <c r="E168">
-        <f>VLOOKUP(A168,Offre!$A:$E,4,0)</f>
-        <v>21</v>
+        <f>VLOOKUP(A168,Offre!$A:$E,5,0)</f>
+        <v>16</v>
       </c>
       <c r="F168" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114835','SCHREVEL','ALISON','21',md5('19114835'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19114835','SCHREVEL','ALISON','16',md5('19114835'),1);</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -8642,12 +8642,12 @@
         <v>650</v>
       </c>
       <c r="E169">
-        <f>VLOOKUP(A169,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A169,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19134773','ADNOT','ROMAIN','14',md5('19134773'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19134773','ADNOT','ROMAIN','17',md5('19134773'),1);</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -8664,12 +8664,12 @@
         <v>653</v>
       </c>
       <c r="E170">
-        <f>VLOOKUP(A170,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A170,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F170" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129736','BOUZERADE','KHADJOU','14',md5('19129736'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129736','BOUZERADE','KHADJOU','17',md5('19129736'),1);</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -8686,12 +8686,12 @@
         <v>656</v>
       </c>
       <c r="E171">
-        <f>VLOOKUP(A171,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A171,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F171" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129842','CHAMSSI ATTOUMANI','ROU-OUAT','14',md5('19129842'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129842','CHAMSSI ATTOUMANI','ROU-OUAT','17',md5('19129842'),1);</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -8708,12 +8708,12 @@
         <v>659</v>
       </c>
       <c r="E172">
-        <f>VLOOKUP(A172,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A172,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F172" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129715','GRASSIN','LOUANNE','14',md5('19129715'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129715','GRASSIN','LOUANNE','17',md5('19129715'),1);</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -8730,12 +8730,12 @@
         <v>661</v>
       </c>
       <c r="E173">
-        <f>VLOOKUP(A173,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A173,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F173" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137918','HANNON','MARIE','14',md5('19137918'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19137918','HANNON','MARIE','17',md5('19137918'),1);</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -8752,12 +8752,12 @@
         <v>663</v>
       </c>
       <c r="E174">
-        <f>VLOOKUP(A174,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A174,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F174" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129733','LAFORCE','PALOMA','14',md5('19129733'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129733','LAFORCE','PALOMA','17',md5('19129733'),1);</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -8774,12 +8774,12 @@
         <v>666</v>
       </c>
       <c r="E175">
-        <f>VLOOKUP(A175,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A175,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F175" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129707','LEFEBVRE','SHANNON','14',md5('19129707'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129707','LEFEBVRE','SHANNON','17',md5('19129707'),1);</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -8796,12 +8796,12 @@
         <v>668</v>
       </c>
       <c r="E176">
-        <f>VLOOKUP(A176,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A176,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F176" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('17012317','LEPLAT','ISABELLE','14',md5('17012317'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('17012317','LEPLAT','ISABELLE','17',md5('17012317'),1);</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -8818,12 +8818,12 @@
         <v>671</v>
       </c>
       <c r="E177">
-        <f>VLOOKUP(A177,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A177,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F177" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129812','PROVOU','DEBORAH','14',md5('19129812'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129812','PROVOU','DEBORAH','17',md5('19129812'),1);</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -8840,12 +8840,12 @@
         <v>674</v>
       </c>
       <c r="E178">
-        <f>VLOOKUP(A178,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A178,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129745','REDONDO','OPHELIE','14',md5('19129745'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129745','REDONDO','OPHELIE','17',md5('19129745'),1);</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -8862,12 +8862,12 @@
         <v>676</v>
       </c>
       <c r="E179">
-        <f>VLOOKUP(A179,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A179,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129727','THOORIS','MARIE','14',md5('19129727'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129727','THOORIS','MARIE','17',md5('19129727'),1);</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -8884,12 +8884,12 @@
         <v>679</v>
       </c>
       <c r="E180">
-        <f>VLOOKUP(A180,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A180,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F180" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16140554','TOUALBIA','FIONA','14',md5('16140554'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16140554','TOUALBIA','FIONA','17',md5('16140554'),1);</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -8906,12 +8906,12 @@
         <v>682</v>
       </c>
       <c r="E181">
-        <f>VLOOKUP(A181,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A181,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F181" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129837','WYBOUW','JUSTINE','14',md5('19129837'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129837','WYBOUW','JUSTINE','17',md5('19129837'),1);</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -8928,12 +8928,12 @@
         <v>685</v>
       </c>
       <c r="E182">
-        <f>VLOOKUP(A182,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A182,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F182" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19133704','GRAIRIAN','MERI','14',md5('19133704'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19133704','GRAIRIAN','MERI','17',md5('19133704'),1);</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -8950,12 +8950,12 @@
         <v>688</v>
       </c>
       <c r="E183">
-        <f>VLOOKUP(A183,Offre!$A:$E,4,0)</f>
-        <v>14</v>
+        <f>VLOOKUP(A183,Offre!$A:$E,5,0)</f>
+        <v>17</v>
       </c>
       <c r="F183" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139407','ROHART','CORINNE','14',md5('19139407'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19139407','ROHART','CORINNE','17',md5('19139407'),1);</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -8972,12 +8972,12 @@
         <v>691</v>
       </c>
       <c r="E184">
-        <f>VLOOKUP(A184,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A184,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129256','ARNOUX','JUSTIN','7',md5('19129256'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129256','ARNOUX','JUSTIN','1',md5('19129256'),1);</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -8994,12 +8994,12 @@
         <v>693</v>
       </c>
       <c r="E185">
-        <f>VLOOKUP(A185,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A185,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F185" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129277','BEGREM','NICOLAS','7',md5('19129277'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129277','BEGREM','NICOLAS','1',md5('19129277'),1);</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -9016,12 +9016,12 @@
         <v>696</v>
       </c>
       <c r="E186">
-        <f>VLOOKUP(A186,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A186,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129303','CANDILLIER','GEOFFREY','7',md5('19129303'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129303','CANDILLIER','GEOFFREY','1',md5('19129303'),1);</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -9038,12 +9038,12 @@
         <v>699</v>
       </c>
       <c r="E187">
-        <f>VLOOKUP(A187,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A187,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F187" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129273','CONSIL','ANTHONY','7',md5('19129273'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129273','CONSIL','ANTHONY','1',md5('19129273'),1);</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -9060,12 +9060,12 @@
         <v>701</v>
       </c>
       <c r="E188">
-        <f>VLOOKUP(A188,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A188,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F188" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129315','DEKAISER','CHRISTOPHE','7',md5('19129315'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129315','DEKAISER','CHRISTOPHE','1',md5('19129315'),1);</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -9082,12 +9082,12 @@
         <v>704</v>
       </c>
       <c r="E189">
-        <f>VLOOKUP(A189,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A189,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F189" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16176537','FOURNIVAL','THIERRY','7',md5('16176537'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16176537','FOURNIVAL','THIERRY','1',md5('16176537'),1);</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -9104,12 +9104,12 @@
         <v>706</v>
       </c>
       <c r="E190">
-        <f>VLOOKUP(A190,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A190,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F190" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129280','LENNE','JEROME','7',md5('19129280'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129280','LENNE','JEROME','1',md5('19129280'),1);</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -9126,12 +9126,12 @@
         <v>708</v>
       </c>
       <c r="E191">
-        <f>VLOOKUP(A191,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A191,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F191" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129284','LIBLANC','KEVIN','7',md5('19129284'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129284','LIBLANC','KEVIN','1',md5('19129284'),1);</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -9148,12 +9148,12 @@
         <v>711</v>
       </c>
       <c r="E192">
-        <f>VLOOKUP(A192,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A192,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F192" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129288','MADER','QUENTIN','7',md5('19129288'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129288','MADER','QUENTIN','1',md5('19129288'),1);</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -9170,12 +9170,12 @@
         <v>713</v>
       </c>
       <c r="E193">
-        <f>VLOOKUP(A193,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A193,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F193" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131203','NGONGANG','AMELIE','7',md5('19131203'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19131203','NGONGANG','AMELIE','1',md5('19131203'),1);</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -9192,12 +9192,12 @@
         <v>716</v>
       </c>
       <c r="E194">
-        <f>VLOOKUP(A194,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A194,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F194" t="str">
         <f t="shared" si="2"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129268','RENAUX','GAETAN','7',md5('19129268'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129268','RENAUX','GAETAN','1',md5('19129268'),1);</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -9214,12 +9214,12 @@
         <v>719</v>
       </c>
       <c r="E195">
-        <f>VLOOKUP(A195,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A195,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F238" si="3">"insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('"&amp;D195&amp;"','"&amp;B195&amp;"','"&amp;C195&amp;"','"&amp;E195&amp;"',md5('"&amp;D195&amp;"'),1);"</f>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129005','ROCHE','MARINE','7',md5('19129005'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129005','ROCHE','MARINE','1',md5('19129005'),1);</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -9236,12 +9236,12 @@
         <v>721</v>
       </c>
       <c r="E196">
-        <f>VLOOKUP(A196,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A196,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129295','ROUBLIC','MICHAEL','7',md5('19129295'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129295','ROUBLIC','MICHAEL','1',md5('19129295'),1);</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -9258,12 +9258,12 @@
         <v>724</v>
       </c>
       <c r="E197">
-        <f>VLOOKUP(A197,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A197,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129245','SCHMITZ','ALEXANDRE','7',md5('19129245'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129245','SCHMITZ','ALEXANDRE','1',md5('19129245'),1);</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -9280,12 +9280,12 @@
         <v>727</v>
       </c>
       <c r="E198">
-        <f>VLOOKUP(A198,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A198,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F198" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135166','TERRYN','TEDDY','7',md5('19135166'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19135166','TERRYN','TEDDY','1',md5('19135166'),1);</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -9302,12 +9302,12 @@
         <v>730</v>
       </c>
       <c r="E199">
-        <f>VLOOKUP(A199,Offre!$A:$E,4,0)</f>
-        <v>7</v>
+        <f>VLOOKUP(A199,Offre!$A:$E,5,0)</f>
+        <v>1</v>
       </c>
       <c r="F199" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129259','TRAPET','CORENTIN','7',md5('19129259'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19129259','TRAPET','CORENTIN','1',md5('19129259'),1);</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -9324,7 +9324,7 @@
         <v>732</v>
       </c>
       <c r="E200" t="e">
-        <f>VLOOKUP(A200,Offre!$A:$E,4,0)</f>
+        <f>VLOOKUP(A200,Offre!$A:$E,5,0)</f>
         <v>#N/A</v>
       </c>
       <c r="F200" t="e">
@@ -9346,12 +9346,12 @@
         <v>733</v>
       </c>
       <c r="E201">
-        <f>VLOOKUP(A201,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A201,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F201" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16123149','CHRISTOPHE','ALAIN','6',md5('16123149'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('16123149','CHRISTOPHE','ALAIN','19',md5('16123149'),1);</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -9368,12 +9368,12 @@
         <v>736</v>
       </c>
       <c r="E202">
-        <f>VLOOKUP(A202,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A202,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F202" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130049','DUTAS','ALFREDO','6',md5('19130049'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130049','DUTAS','ALFREDO','19',md5('19130049'),1);</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -9390,12 +9390,12 @@
         <v>738</v>
       </c>
       <c r="E203">
-        <f>VLOOKUP(A203,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A203,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F203" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18057086','LAJOUX','JULIEN','6',md5('18057086'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('18057086','LAJOUX','JULIEN','19',md5('18057086'),1);</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -9412,12 +9412,12 @@
         <v>740</v>
       </c>
       <c r="E204">
-        <f>VLOOKUP(A204,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A204,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F204" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19127495','MARTIN','NICOLAS','6',md5('19127495'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19127495','MARTIN','NICOLAS','19',md5('19127495'),1);</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -9434,12 +9434,12 @@
         <v>742</v>
       </c>
       <c r="E205">
-        <f>VLOOKUP(A205,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A205,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F205" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130074','VANDOMME','ANTHONY','6',md5('19130074'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19130074','VANDOMME','ANTHONY','19',md5('19130074'),1);</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -9456,12 +9456,12 @@
         <v>745</v>
       </c>
       <c r="E206">
-        <f>VLOOKUP(A206,Offre!$A:$E,4,0)</f>
-        <v>6</v>
+        <f>VLOOKUP(A206,Offre!$A:$E,5,0)</f>
+        <v>19</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('15114404','ZACCONI','ERIC','6',md5('15114404'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('15114404','ZACCONI','ERIC','19',md5('15114404'),1);</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -9478,12 +9478,12 @@
         <v>747</v>
       </c>
       <c r="E207">
-        <f>VLOOKUP(A207,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A207,Offre!$A:$E,5,0)</f>
+        <v>20</v>
       </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19102276','SZWED','MICHEL','15',md5('19102276'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19102276','SZWED','MICHEL','20',md5('19102276'),1);</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -9500,12 +9500,12 @@
         <v>750</v>
       </c>
       <c r="E208">
-        <f>VLOOKUP(A208,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A208,Offre!$A:$E,5,0)</f>
+        <v>21</v>
       </c>
       <c r="F208" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19106356','DUTOIT','TRYSTAN','15',md5('19106356'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19106356','DUTOIT','TRYSTAN','21',md5('19106356'),1);</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -9522,12 +9522,12 @@
         <v>752</v>
       </c>
       <c r="E209">
-        <f>VLOOKUP(A209,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A209,Offre!$A:$E,5,0)</f>
+        <v>21</v>
       </c>
       <c r="F209" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105867','TYROU','SYLVAIN','15',md5('19105867'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105867','TYROU','SYLVAIN','21',md5('19105867'),1);</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9544,12 +9544,12 @@
         <v>754</v>
       </c>
       <c r="E210">
-        <f>VLOOKUP(A210,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A210,Offre!$A:$E,5,0)</f>
+        <v>22</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105840','HEENDRICKXEN','DAVID','15',md5('19105840'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19105840','HEENDRICKXEN','DAVID','22',md5('19105840'),1);</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -9566,12 +9566,12 @@
         <v>757</v>
       </c>
       <c r="E211">
-        <f>VLOOKUP(A211,Offre!$A:$E,4,0)</f>
-        <v>17</v>
+        <f>VLOOKUP(A211,Offre!$A:$E,5,0)</f>
+        <v>23</v>
       </c>
       <c r="F211" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19112111','DUFRESNE','LUCAS','17',md5('19112111'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19112111','DUFRESNE','LUCAS','23',md5('19112111'),1);</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -9588,12 +9588,12 @@
         <v>760</v>
       </c>
       <c r="E212">
-        <f>VLOOKUP(A212,Offre!$A:$E,4,0)</f>
-        <v>15</v>
+        <f>VLOOKUP(A212,Offre!$A:$E,5,0)</f>
+        <v>24</v>
       </c>
       <c r="F212" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19122473','PECQUEUX','JOHANN','15',md5('19122473'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19122473','PECQUEUX','JOHANN','24',md5('19122473'),1);</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9610,12 +9610,12 @@
         <v>763</v>
       </c>
       <c r="E213">
-        <f>VLOOKUP(A213,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A213,Offre!$A:$E,5,0)</f>
+        <v>25</v>
       </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20007170','ALLOUCHERY','ALINE','18',md5('20007170'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20007170','ALLOUCHERY','ALINE','25',md5('20007170'),1);</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -9632,12 +9632,12 @@
         <v>766</v>
       </c>
       <c r="E214">
-        <f>VLOOKUP(A214,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A214,Offre!$A:$E,5,0)</f>
+        <v>25</v>
       </c>
       <c r="F214" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012098','GOMAR','NADIA','18',md5('20012098'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012098','GOMAR','NADIA','25',md5('20012098'),1);</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -9654,12 +9654,12 @@
         <v>769</v>
       </c>
       <c r="E215">
-        <f>VLOOKUP(A215,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A215,Offre!$A:$E,5,0)</f>
+        <v>25</v>
       </c>
       <c r="F215" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19046184','PILLET','SIMONE','18',md5('19046184'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('19046184','PILLET','SIMONE','25',md5('19046184'),1);</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -9676,12 +9676,12 @@
         <v>772</v>
       </c>
       <c r="E216">
-        <f>VLOOKUP(A216,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A216,Offre!$A:$E,5,0)</f>
+        <v>25</v>
       </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08145330','PRONIER','CARINE','18',md5('08145330'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('08145330','PRONIER','CARINE','25',md5('08145330'),1);</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -9698,12 +9698,12 @@
         <v>775</v>
       </c>
       <c r="E217">
-        <f>VLOOKUP(A217,Offre!$A:$E,4,0)</f>
-        <v>18</v>
+        <f>VLOOKUP(A217,Offre!$A:$E,5,0)</f>
+        <v>25</v>
       </c>
       <c r="F217" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20007183','RYCKEBOSCH','CINDY','18',md5('20007183'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20007183','RYCKEBOSCH','CINDY','25',md5('20007183'),1);</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -9720,12 +9720,12 @@
         <v>778</v>
       </c>
       <c r="E218">
-        <f>VLOOKUP(A218,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A218,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004542','BADRI','HALGORDE','11',md5('20004542'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004542','BADRI','HALGORDE','26',md5('20004542'),1);</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -9742,12 +9742,12 @@
         <v>780</v>
       </c>
       <c r="E219">
-        <f>VLOOKUP(A219,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A219,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F219" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004587','DEPREZ','MAXENCE','11',md5('20004587'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004587','DEPREZ','MAXENCE','26',md5('20004587'),1);</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -9764,12 +9764,12 @@
         <v>782</v>
       </c>
       <c r="E220">
-        <f>VLOOKUP(A220,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A220,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F220" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004585','DUQUENE','ROMAIN','11',md5('20004585'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004585','DUQUENE','ROMAIN','26',md5('20004585'),1);</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -9786,12 +9786,12 @@
         <v>783</v>
       </c>
       <c r="E221">
-        <f>VLOOKUP(A221,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A221,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F221" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004578','GUILBERT','FLORIAN','11',md5('20004578'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004578','GUILBERT','FLORIAN','26',md5('20004578'),1);</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -9808,12 +9808,12 @@
         <v>785</v>
       </c>
       <c r="E222">
-        <f>VLOOKUP(A222,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A222,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F222" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004597','LIEVIN','LAURENT','11',md5('20004597'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004597','LIEVIN','LAURENT','26',md5('20004597'),1);</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9830,12 +9830,12 @@
         <v>786</v>
       </c>
       <c r="E223">
-        <f>VLOOKUP(A223,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A223,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F223" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004557','MARTEL','JOSSELIN','11',md5('20004557'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004557','MARTEL','JOSSELIN','26',md5('20004557'),1);</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9852,12 +9852,12 @@
         <v>788</v>
       </c>
       <c r="E224">
-        <f>VLOOKUP(A224,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A224,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F224" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004553','ORGAER','PAUL','11',md5('20004553'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004553','ORGAER','PAUL','26',md5('20004553'),1);</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -9874,12 +9874,12 @@
         <v>790</v>
       </c>
       <c r="E225">
-        <f>VLOOKUP(A225,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A225,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004591','SAILLOT','PIERRE','11',md5('20004591'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004591','SAILLOT','PIERRE','26',md5('20004591'),1);</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -9896,12 +9896,12 @@
         <v>793</v>
       </c>
       <c r="E226">
-        <f>VLOOKUP(A226,Offre!$A:$E,4,0)</f>
-        <v>11</v>
+        <f>VLOOKUP(A226,Offre!$A:$E,5,0)</f>
+        <v>26</v>
       </c>
       <c r="F226" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004572','TIRMARCHE','ALEXIS','11',md5('20004572'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20004572','TIRMARCHE','ALEXIS','26',md5('20004572'),1);</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -9918,12 +9918,12 @@
         <v>796</v>
       </c>
       <c r="E227">
-        <f>VLOOKUP(A227,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A227,Offre!$A:$E,5,0)</f>
+        <v>27</v>
       </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012481','ABDALLAH','PATRICIA','16',md5('20012481'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012481','ABDALLAH','PATRICIA','27',md5('20012481'),1);</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -9940,12 +9940,12 @@
         <v>798</v>
       </c>
       <c r="E228">
-        <f>VLOOKUP(A228,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A228,Offre!$A:$E,5,0)</f>
+        <v>27</v>
       </c>
       <c r="F228" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012474','BODO','LYSIANE','16',md5('20012474'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012474','BODO','LYSIANE','27',md5('20012474'),1);</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -9962,12 +9962,12 @@
         <v>801</v>
       </c>
       <c r="E229">
-        <f>VLOOKUP(A229,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A229,Offre!$A:$E,5,0)</f>
+        <v>27</v>
       </c>
       <c r="F229" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012472','BONNE','PRISCILLA','16',md5('20012472'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012472','BONNE','PRISCILLA','27',md5('20012472'),1);</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -9984,12 +9984,12 @@
         <v>803</v>
       </c>
       <c r="E230">
-        <f>VLOOKUP(A230,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A230,Offre!$A:$E,5,0)</f>
+        <v>27</v>
       </c>
       <c r="F230" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012468','DELACROIX','LAETITIA','16',md5('20012468'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012468','DELACROIX','LAETITIA','27',md5('20012468'),1);</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10006,12 +10006,12 @@
         <v>805</v>
       </c>
       <c r="E231">
-        <f>VLOOKUP(A231,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A231,Offre!$A:$E,5,0)</f>
+        <v>27</v>
       </c>
       <c r="F231" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012480','VANHOLDERBEKE','ISABELLE','16',md5('20012480'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20012480','VANHOLDERBEKE','ISABELLE','27',md5('20012480'),1);</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -10028,12 +10028,12 @@
         <v>808</v>
       </c>
       <c r="E232">
-        <f>VLOOKUP(A232,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A232,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F232" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013440','AVADANEI','RODICA','16',md5('20013440'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013440','AVADANEI','RODICA','28',md5('20013440'),1);</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10050,12 +10050,12 @@
         <v>810</v>
       </c>
       <c r="E233">
-        <f>VLOOKUP(A233,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A233,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20015538','BARTHELEMY','MELANIE','16',md5('20015538'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20015538','BARTHELEMY','MELANIE','28',md5('20015538'),1);</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -10072,12 +10072,12 @@
         <v>813</v>
       </c>
       <c r="E234">
-        <f>VLOOKUP(A234,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A234,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F234" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013798','FARIN','CHANTAL','16',md5('20013798'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013798','FARIN','CHANTAL','28',md5('20013798'),1);</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,12 +10094,12 @@
         <v>815</v>
       </c>
       <c r="E235">
-        <f>VLOOKUP(A235,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A235,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F235" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013435','GEERAERT','ANNIE','16',md5('20013435'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013435','GEERAERT','ANNIE','28',md5('20013435'),1);</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -10116,12 +10116,12 @@
         <v>817</v>
       </c>
       <c r="E236">
-        <f>VLOOKUP(A236,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A236,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013449','LANIEZ','SYLVIE','16',md5('20013449'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013449','LANIEZ','SYLVIE','28',md5('20013449'),1);</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -10138,12 +10138,12 @@
         <v>819</v>
       </c>
       <c r="E237">
-        <f>VLOOKUP(A237,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A237,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F237" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013445','LYSIAK','DAVID','16',md5('20013445'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20013445','LYSIAK','DAVID','28',md5('20013445'),1);</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -10160,12 +10160,12 @@
         <v>822</v>
       </c>
       <c r="E238">
-        <f>VLOOKUP(A238,Offre!$A:$E,4,0)</f>
-        <v>16</v>
+        <f>VLOOKUP(A238,Offre!$A:$E,5,0)</f>
+        <v>28</v>
       </c>
       <c r="F238" t="str">
         <f t="shared" si="3"/>
-        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20016114','MERLIN','JEAN-FRANCOIS','16',md5('20016114'),1);</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20016114','MERLIN','JEAN-FRANCOIS','28',md5('20016114'),1);</v>
       </c>
     </row>
   </sheetData>
@@ -12352,7 +12352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C5"/>
     </sheetView>
   </sheetViews>

--- a/SQL/Données de base.xlsx
+++ b/SQL/Données de base.xlsx
@@ -4931,7 +4931,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F238"/>
     </sheetView>
   </sheetViews>
@@ -9323,13 +9323,12 @@
       <c r="D200" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="E200" t="e">
-        <f>VLOOKUP(A200,Offre!$A:$E,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F200" t="e">
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" t="str">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>insert into stagiaire (numBenef,Nom,Prenom,idOffre,motDePasse,role) values('20000802','DEVRED','ROMAIN','1',md5('20000802'),1);</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
